--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_32.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_32.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02779293060302734</v>
+        <v>0.0006272792816162109</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01090621948242188</v>
+        <v>0.0008697509765625</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002779960632324219</v>
+        <v>0.01508402824401855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (2, 5), (4, 3), (5, 0), (5, 1), (5, 2), (4, 4), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [2, 5], [4, 3], [5, 0], [5, 1], [5, 2], [4, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 5), (2, 5), (4, 3), (5, 0), (5, 1), (5, 2), (4, 4), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 5], [2, 5], [4, 3], [5, 0], [5, 1], [5, 2], [4, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[(2, 0), (0, 4), (0, 5), (1, 3), (3, 0), (3, 1), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (2, 2), (2, 3), (3, 2), (2, 4), (3, 3), (2, 5), (4, 3), (4, 4), (4, 2), (5, 2), (5, 3), (5, 1), (0, 0), (0, 2), (0, 3), (1, 0), (1, 1), (1, 2), (2, 1), (0, 1)]</t>
+          <t>[[2, 0], [0, 4], [0, 5], [1, 3], [3, 0], [3, 1], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [2, 2], [2, 3], [3, 2], [2, 4], [3, 3], [2, 5], [4, 3], [4, 4], [4, 2], [5, 2], [5, 3], [5, 1], [0, 0], [0, 2], [0, 3], [1, 0], [1, 1], [1, 2], [2, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -1051,110 +1051,120 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20</v>
+        <v>0.9987714513587362</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.05159711837768555</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.03205418586730957</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
